--- a/raw_data/20200818_saline/20200818_Sensor1_Test_78.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_78.xlsx
@@ -1,2412 +1,2828 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD7A30-0319-4B25-8097-A2B3E7F9522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>69486.570789</v>
+        <v>69486.570789000005</v>
       </c>
       <c r="B2" s="1">
-        <v>19.301825</v>
+        <v>19.301825000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>900.754000</v>
+        <v>900.75400000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.147000</v>
+        <v>-194.14699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>69497.272446</v>
+        <v>69497.272446000003</v>
       </c>
       <c r="G2" s="1">
-        <v>19.304798</v>
+        <v>19.304798000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>918.054000</v>
+        <v>918.05399999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.836000</v>
+        <v>-164.83600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>69507.679008</v>
+        <v>69507.679008000006</v>
       </c>
       <c r="L2" s="1">
         <v>19.307689</v>
       </c>
       <c r="M2" s="1">
-        <v>940.652000</v>
+        <v>940.65200000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.171000</v>
+        <v>-118.17100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>69518.168724</v>
+        <v>69518.168724000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.310602</v>
+        <v>19.310601999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.732000</v>
+        <v>947.73199999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.607000</v>
+        <v>-102.607</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>69528.726776</v>
+        <v>69528.726775999996</v>
       </c>
       <c r="V2" s="1">
-        <v>19.313535</v>
+        <v>19.313535000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>954.676000</v>
+        <v>954.67600000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.046300</v>
+        <v>-88.046300000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>69539.161078</v>
+        <v>69539.161078000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.316434</v>
+        <v>19.316434000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.241000</v>
+        <v>962.24099999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.993200</v>
+        <v>-76.993200000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>69550.037889</v>
+        <v>69550.037888999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.319455</v>
+        <v>19.319455000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.353000</v>
+        <v>967.35299999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.025400</v>
+        <v>-75.025400000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>69560.475200</v>
+        <v>69560.475200000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.322354</v>
+        <v>19.322354000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.778000</v>
+        <v>974.77800000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.748700</v>
+        <v>-79.748699999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>69570.799387</v>
+        <v>69570.799387000006</v>
       </c>
       <c r="AP2" s="1">
         <v>19.325222</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.045000</v>
+        <v>983.04499999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.180300</v>
+        <v>-91.180300000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>69581.460893</v>
+        <v>69581.460892999996</v>
       </c>
       <c r="AU2" s="1">
         <v>19.328184</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.014000</v>
+        <v>993.01400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.716000</v>
+        <v>-108.71599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>69592.222131</v>
+        <v>69592.222131000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.331173</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.330000</v>
+        <v>1001.33</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.256000</v>
+        <v>-124.256</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>69602.411416</v>
+        <v>69602.411416000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.334003</v>
+        <v>19.334002999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.644000</v>
+        <v>-195.64400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>69613.032284</v>
+        <v>69613.032284000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.336953</v>
+        <v>19.336953000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.744000</v>
+        <v>-310.74400000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>69624.482884</v>
+        <v>69624.482883999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.340134</v>
+        <v>19.340133999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.441000</v>
+        <v>-490.44099999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>69634.841717</v>
+        <v>69634.841717000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.343012</v>
+        <v>19.343012000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.920000</v>
+        <v>1338.92</v>
       </c>
       <c r="BV2" s="1">
-        <v>-686.101000</v>
+        <v>-686.101</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>69645.300969</v>
+        <v>69645.300969000004</v>
       </c>
       <c r="BY2" s="1">
         <v>19.345917</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.560000</v>
+        <v>1474.56</v>
       </c>
       <c r="CA2" s="1">
-        <v>-893.910000</v>
+        <v>-893.91</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>69656.180218</v>
+        <v>69656.180217999994</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.348939</v>
+        <v>19.348939000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.520000</v>
+        <v>1826.52</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1385.070000</v>
+        <v>-1385.07</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>69487.278590</v>
+        <v>69487.278590000002</v>
       </c>
       <c r="B3" s="1">
-        <v>19.302022</v>
+        <v>19.302022000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>900.683000</v>
+        <v>900.68299999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.913000</v>
+        <v>-193.91300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>69497.611709</v>
+        <v>69497.611709000004</v>
       </c>
       <c r="G3" s="1">
-        <v>19.304892</v>
+        <v>19.304891999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>917.772000</v>
+        <v>917.77200000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.241000</v>
+        <v>-165.24100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>69508.012814</v>
+        <v>69508.012814000002</v>
       </c>
       <c r="L3" s="1">
-        <v>19.307781</v>
+        <v>19.307780999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>940.812000</v>
+        <v>940.81200000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.057000</v>
+        <v>-118.057</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>69518.535441</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.310704</v>
+        <v>19.310704000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.743000</v>
+        <v>947.74300000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>69529.084590</v>
+        <v>69529.084589999999</v>
       </c>
       <c r="V3" s="1">
-        <v>19.313635</v>
+        <v>19.313635000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.718000</v>
+        <v>954.71799999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.186100</v>
+        <v>-88.186099999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>69539.864404</v>
+        <v>69539.864404000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.316629</v>
+        <v>19.316628999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.295000</v>
+        <v>962.29499999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.029500</v>
+        <v>-77.029499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>69550.452535</v>
+        <v>69550.452535000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.319570</v>
+        <v>19.319569999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.331000</v>
+        <v>967.33100000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.043900</v>
+        <v>-75.043899999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>69560.894282</v>
+        <v>69560.894281999994</v>
       </c>
       <c r="AK3" s="1">
         <v>19.322471</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.814000</v>
+        <v>974.81399999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.755000</v>
+        <v>-79.754999999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>69571.163452</v>
+        <v>69571.163451999993</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.325323</v>
+        <v>19.325323000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.032000</v>
+        <v>983.03200000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.189000</v>
+        <v>-91.188999999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>69581.841820</v>
+        <v>69581.841820000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.328289</v>
+        <v>19.328289000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.017000</v>
+        <v>993.01700000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.759000</v>
+        <v>-108.759</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>69592.627856</v>
+        <v>69592.627856000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.331286</v>
+        <v>19.331285999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.263000</v>
+        <v>-124.26300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>69602.827088</v>
+        <v>69602.827088000005</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.334119</v>
+        <v>19.334119000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.390000</v>
+        <v>1040.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.658000</v>
+        <v>-195.65799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>69613.454834</v>
+        <v>69613.454834000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.337071</v>
+        <v>19.337071000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1107.910000</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.706000</v>
+        <v>-310.70600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>69624.602420</v>
+        <v>69624.602419999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.340167</v>
+        <v>19.340167000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.455000</v>
+        <v>-490.45499999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>69634.996620</v>
+        <v>69634.996620000005</v>
       </c>
       <c r="BT3" s="1">
         <v>19.343055</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.830000</v>
+        <v>1338.83</v>
       </c>
       <c r="BV3" s="1">
-        <v>-686.116000</v>
+        <v>-686.11599999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>69645.766248</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.346046</v>
+        <v>19.346046000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.610000</v>
+        <v>1474.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-893.928000</v>
+        <v>-893.928</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>69656.741691</v>
+        <v>69656.741691000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.349095</v>
+        <v>19.349094999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.490000</v>
+        <v>1826.49</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1383.920000</v>
+        <v>-1383.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>69487.617321</v>
+        <v>69487.617320999998</v>
       </c>
       <c r="B4" s="1">
-        <v>19.302116</v>
+        <v>19.302116000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>900.816000</v>
+        <v>900.81600000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.137000</v>
+        <v>-194.137</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>69497.954966</v>
+        <v>69497.954966000005</v>
       </c>
       <c r="G4" s="1">
-        <v>19.304987</v>
+        <v>19.304987000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>917.760000</v>
+        <v>917.76</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.621000</v>
+        <v>-164.62100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>69508.357076</v>
       </c>
       <c r="L4" s="1">
-        <v>19.307877</v>
+        <v>19.307877000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.840000</v>
+        <v>940.84</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.069000</v>
+        <v>-118.069</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>69519.189664</v>
+        <v>69519.189664000005</v>
       </c>
       <c r="Q4" s="1">
         <v>19.310886</v>
       </c>
       <c r="R4" s="1">
-        <v>947.743000</v>
+        <v>947.74300000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.542000</v>
+        <v>-102.542</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>69529.828353</v>
+        <v>69529.828353000004</v>
       </c>
       <c r="V4" s="1">
         <v>19.313841</v>
       </c>
       <c r="W4" s="1">
-        <v>954.730000</v>
+        <v>954.73</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.099900</v>
+        <v>-88.099900000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>69540.242361</v>
+        <v>69540.242360999997</v>
       </c>
       <c r="AA4" s="1">
         <v>19.316734</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.283000</v>
+        <v>962.28300000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.942300</v>
+        <v>-76.942300000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>69550.795238</v>
+        <v>69550.795238000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.319665</v>
+        <v>19.319665000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.433000</v>
+        <v>967.43299999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.980300</v>
+        <v>-74.9803</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>69561.243464</v>
+        <v>69561.243463999999</v>
       </c>
       <c r="AK4" s="1">
         <v>19.322568</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.776000</v>
+        <v>974.77599999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.717800</v>
+        <v>-79.717799999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>69571.521066</v>
+        <v>69571.521066000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.325423</v>
+        <v>19.325423000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.049000</v>
+        <v>983.04899999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.186600</v>
+        <v>-91.186599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>69582.227212</v>
+        <v>69582.227211999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.328396</v>
+        <v>19.328396000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.994000</v>
+        <v>992.99400000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>69593.054381</v>
+        <v>69593.054380999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.331404</v>
+        <v>19.331403999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.270000</v>
+        <v>-124.27</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>69603.158384</v>
+        <v>69603.158383999995</v>
       </c>
       <c r="BE4" s="1">
         <v>19.334211</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.669000</v>
+        <v>-195.66900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>69613.811954</v>
+        <v>69613.811954000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.337170</v>
+        <v>19.33717</v>
       </c>
       <c r="BK4" s="1">
-        <v>1107.890000</v>
+        <v>1107.8900000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.728000</v>
+        <v>-310.72800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>69625.038404</v>
+        <v>69625.038404000006</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.340288</v>
+        <v>19.340288000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.459000</v>
+        <v>-490.459</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>69635.410245</v>
+        <v>69635.410245000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.343170</v>
+        <v>19.343170000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.820000</v>
+        <v>1338.82</v>
       </c>
       <c r="BV4" s="1">
-        <v>-686.164000</v>
+        <v>-686.16399999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>69646.214105</v>
+        <v>69646.214105000006</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.346171</v>
+        <v>19.346170999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.670000</v>
+        <v>1474.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-894.006000</v>
+        <v>-894.00599999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>69657.262024</v>
+        <v>69657.262023999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.349239</v>
+        <v>19.349239000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.100000</v>
+        <v>1825.1</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1384.850000</v>
+        <v>-1384.85</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>69487.959560</v>
+        <v>69487.959560000003</v>
       </c>
       <c r="B5" s="1">
         <v>19.302211</v>
       </c>
       <c r="C5" s="1">
-        <v>900.685000</v>
+        <v>900.68499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.158000</v>
+        <v>-194.15799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>69498.616602</v>
+        <v>69498.616601999995</v>
       </c>
       <c r="G5" s="1">
-        <v>19.305171</v>
+        <v>19.305171000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>917.888000</v>
+        <v>917.88800000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.487000</v>
+        <v>-164.48699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>69509.019693</v>
+        <v>69509.019692999995</v>
       </c>
       <c r="L5" s="1">
-        <v>19.308061</v>
+        <v>19.308060999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>940.791000</v>
+        <v>940.79100000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.291000</v>
+        <v>-118.291</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>69519.581008</v>
+        <v>69519.581007999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.310995</v>
+        <v>19.310994999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>947.757000</v>
+        <v>947.75699999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.596000</v>
+        <v>-102.596</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>69530.127976</v>
+        <v>69530.127976000003</v>
       </c>
       <c r="V5" s="1">
         <v>19.313924</v>
       </c>
       <c r="W5" s="1">
-        <v>954.659000</v>
+        <v>954.65899999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.182100</v>
+        <v>-88.182100000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>69540.591574</v>
+        <v>69540.591574000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.316831</v>
+        <v>19.316831000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.384000</v>
+        <v>962.38400000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.973200</v>
+        <v>-76.973200000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>69551.140949</v>
+        <v>69551.140948999993</v>
       </c>
       <c r="AF5" s="1">
         <v>19.319761</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.241000</v>
+        <v>967.24099999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.073400</v>
+        <v>-75.073400000000007</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>69561.592151</v>
+        <v>69561.592151000004</v>
       </c>
       <c r="AK5" s="1">
         <v>19.322664</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.776000</v>
+        <v>974.77599999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.706700</v>
+        <v>-79.706699999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>69571.940223</v>
+        <v>69571.940222999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.325539</v>
+        <v>19.325538999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.029000</v>
+        <v>983.029</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.184900</v>
+        <v>-91.184899999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>69582.709856</v>
+        <v>69582.709856000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.328531</v>
+        <v>19.328531000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.010000</v>
+        <v>993.01</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.721000</v>
+        <v>-108.721</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>69593.344077</v>
+        <v>69593.344077000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>19.331484</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.263000</v>
+        <v>-124.26300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>69603.517490</v>
+        <v>69603.517489999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.334310</v>
+        <v>19.334309999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.663000</v>
+        <v>-195.66300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>69614.185441</v>
+        <v>69614.185440999994</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.337274</v>
+        <v>19.337274000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1107.910000</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.738000</v>
+        <v>-310.738</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>69625.435237</v>
+        <v>69625.435236999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.340399</v>
+        <v>19.340399000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.466000</v>
+        <v>-490.46600000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>69636.165689</v>
+        <v>69636.165689000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.343379</v>
+        <v>19.343378999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.830000</v>
+        <v>1338.83</v>
       </c>
       <c r="BV5" s="1">
-        <v>-686.267000</v>
+        <v>-686.26700000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>69646.643640</v>
+        <v>69646.643639999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.346290</v>
+        <v>19.34629</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.640000</v>
+        <v>1474.64</v>
       </c>
       <c r="CA5" s="1">
-        <v>-894.116000</v>
+        <v>-894.11599999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>69657.800648</v>
+        <v>69657.800648000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.349389</v>
+        <v>19.349388999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.650000</v>
+        <v>1826.65</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1384.880000</v>
+        <v>-1384.88</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>69488.616761</v>
+        <v>69488.616760999997</v>
       </c>
       <c r="B6" s="1">
         <v>19.302394</v>
       </c>
       <c r="C6" s="1">
-        <v>900.777000</v>
+        <v>900.77700000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.126000</v>
+        <v>-194.126</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>69498.990124</v>
+        <v>69498.990124000004</v>
       </c>
       <c r="G6" s="1">
-        <v>19.305275</v>
+        <v>19.305275000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>917.992000</v>
+        <v>917.99199999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.927000</v>
+        <v>-164.92699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>69509.394172</v>
       </c>
       <c r="L6" s="1">
-        <v>19.308165</v>
+        <v>19.308164999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.738000</v>
+        <v>940.73800000000006</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.164000</v>
+        <v>-118.164</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>69519.926718</v>
+        <v>69519.926718000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.311091</v>
+        <v>19.311091000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>947.758000</v>
+        <v>947.75800000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.560000</v>
+        <v>-102.56</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>69530.472656</v>
+        <v>69530.472655999998</v>
       </c>
       <c r="V6" s="1">
-        <v>19.314020</v>
+        <v>19.314019999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>954.650000</v>
+        <v>954.65</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.163200</v>
+        <v>-88.163200000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>69540.941714</v>
+        <v>69540.941714000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.316928</v>
+        <v>19.316928000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.297000</v>
+        <v>962.29700000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.052000</v>
+        <v>-77.052000000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>69551.567510</v>
+        <v>69551.567509999993</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.319880</v>
+        <v>19.319880000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.191000</v>
+        <v>967.19100000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.956100</v>
+        <v>-74.956100000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>69562.012760</v>
+        <v>69562.012759999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.322781</v>
+        <v>19.322780999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.786000</v>
+        <v>974.78599999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.677500</v>
+        <v>-79.677499999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>69572.242746</v>
+        <v>69572.242746000004</v>
       </c>
       <c r="AP6" s="1">
         <v>19.325623</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.026000</v>
+        <v>983.02599999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.182400</v>
+        <v>-91.182400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>69582.959805</v>
+        <v>69582.959805000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.328600</v>
+        <v>19.328600000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.025000</v>
+        <v>993.02499999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.721000</v>
+        <v>-108.721</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>69593.703180</v>
+        <v>69593.703179999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.331584</v>
+        <v>19.331583999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.256000</v>
+        <v>-124.256</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>69603.880063</v>
+        <v>69603.880063000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.334411</v>
+        <v>19.334410999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.679000</v>
+        <v>-195.679</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>69614.569356</v>
+        <v>69614.569356000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.337380</v>
+        <v>19.33738</v>
       </c>
       <c r="BK6" s="1">
-        <v>1107.920000</v>
+        <v>1107.92</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.740000</v>
+        <v>-310.74</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>69625.862786</v>
+        <v>69625.862785999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.340517</v>
+        <v>19.340516999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.512000</v>
+        <v>-490.512</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>69636.274278</v>
+        <v>69636.274277999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.343410</v>
+        <v>19.343409999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.770000</v>
+        <v>1338.77</v>
       </c>
       <c r="BV6" s="1">
-        <v>-686.345000</v>
+        <v>-686.34500000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>69647.065735</v>
+        <v>69647.065734999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.346407</v>
+        <v>19.346406999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA6" s="1">
-        <v>-893.993000</v>
+        <v>-893.99300000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>69658.340791</v>
+        <v>69658.340790999995</v>
       </c>
       <c r="CD6" s="1">
         <v>19.349539</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.270000</v>
+        <v>1825.27</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1384.140000</v>
+        <v>-1384.14</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>69488.985287</v>
+        <v>69488.985287000003</v>
       </c>
       <c r="B7" s="1">
-        <v>19.302496</v>
+        <v>19.302496000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>900.732000</v>
+        <v>900.73199999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.085000</v>
+        <v>-194.08500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>69499.334329</v>
+        <v>69499.334329000005</v>
       </c>
       <c r="G7" s="1">
-        <v>19.305371</v>
+        <v>19.305371000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.575000</v>
+        <v>917.57500000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.918000</v>
+        <v>-164.91800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>69509.740381</v>
+        <v>69509.740380999996</v>
       </c>
       <c r="L7" s="1">
-        <v>19.308261</v>
+        <v>19.308261000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.876000</v>
+        <v>940.87599999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.089000</v>
+        <v>-118.089</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>69520.275407</v>
+        <v>69520.275406999994</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.311188</v>
+        <v>19.311188000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>947.714000</v>
+        <v>947.71400000000006</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.639000</v>
+        <v>-102.639</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>69530.900209</v>
+        <v>69530.900208999999</v>
       </c>
       <c r="V7" s="1">
-        <v>19.314139</v>
+        <v>19.314139000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.667000</v>
+        <v>954.66700000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.214100</v>
+        <v>-88.214100000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>69541.361330</v>
+        <v>69541.36133</v>
       </c>
       <c r="AA7" s="1">
         <v>19.317045</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.365000</v>
+        <v>962.36500000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.068900</v>
+        <v>-77.068899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>69551.834852</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.319954</v>
+        <v>19.319953999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.359000</v>
+        <v>967.35900000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.031900</v>
+        <v>-75.031899999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>69562.288040</v>
+        <v>69562.288039999999</v>
       </c>
       <c r="AK7" s="1">
         <v>19.322858</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.803000</v>
+        <v>974.803</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.687800</v>
+        <v>-79.687799999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>69572.601851</v>
+        <v>69572.601850999999</v>
       </c>
       <c r="AP7" s="1">
         <v>19.325723</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.026000</v>
+        <v>983.02599999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.169200</v>
+        <v>-91.169200000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>69583.324890</v>
+        <v>69583.324890000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.328701</v>
+        <v>19.328700999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.006000</v>
+        <v>993.00599999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.730000</v>
+        <v>-108.73</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>69594.061262</v>
+        <v>69594.061262000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.331684</v>
+        <v>19.331683999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.265000</v>
+        <v>-124.265</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>69604.602240</v>
+        <v>69604.602239999993</v>
       </c>
       <c r="BE7" s="1">
         <v>19.334612</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.683000</v>
+        <v>-195.68299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>69615.332193</v>
+        <v>69615.332192999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.337592</v>
+        <v>19.337592000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1107.930000</v>
+        <v>1107.93</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.739000</v>
+        <v>-310.73899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>69626.252609</v>
+        <v>69626.252609000003</v>
       </c>
       <c r="BO7" s="1">
         <v>19.340626</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.459000</v>
+        <v>-490.459</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>69636.709270</v>
+        <v>69636.709270000007</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.343530</v>
+        <v>19.343530000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.810000</v>
+        <v>1338.81</v>
       </c>
       <c r="BV7" s="1">
-        <v>-686.380000</v>
+        <v>-686.38</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>69647.487831</v>
+        <v>69647.487831000006</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.346524</v>
+        <v>19.346523999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.570000</v>
+        <v>1474.57</v>
       </c>
       <c r="CA7" s="1">
-        <v>-893.944000</v>
+        <v>-893.94399999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>69659.186504</v>
+        <v>69659.186503999998</v>
       </c>
       <c r="CD7" s="1">
         <v>19.349774</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.580000</v>
+        <v>1826.58</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1384.540000</v>
+        <v>-1384.54</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>69489.328519</v>
+        <v>69489.328519000002</v>
       </c>
       <c r="B8" s="1">
         <v>19.302591</v>
       </c>
       <c r="C8" s="1">
-        <v>900.688000</v>
+        <v>900.68799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.197000</v>
+        <v>-194.197</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>69499.679065</v>
+        <v>69499.679065000004</v>
       </c>
       <c r="G8" s="1">
-        <v>19.305466</v>
+        <v>19.305465999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>917.935000</v>
+        <v>917.93499999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.829000</v>
+        <v>-164.82900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>69510.102955</v>
+        <v>69510.102954999995</v>
       </c>
       <c r="L8" s="1">
-        <v>19.308362</v>
+        <v>19.308361999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.781000</v>
+        <v>940.78099999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.220000</v>
+        <v>-118.22</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>69520.702957</v>
+        <v>69520.702957000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.311306</v>
+        <v>19.311305999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>947.722000</v>
+        <v>947.72199999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.604000</v>
+        <v>-102.604</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>69531.163583</v>
+        <v>69531.163583000001</v>
       </c>
       <c r="V8" s="1">
-        <v>19.314212</v>
+        <v>19.314212000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>954.577000</v>
+        <v>954.577</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.144400</v>
+        <v>-88.144400000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>69541.641075</v>
+        <v>69541.641075000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.317123</v>
+        <v>19.317122999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.326000</v>
+        <v>962.32600000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.120500</v>
+        <v>-77.120500000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>69552.178581</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.320050</v>
+        <v>19.320049999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.374000</v>
+        <v>967.37400000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.000000</v>
+        <v>-75</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69562.636727</v>
+        <v>69562.636727000005</v>
       </c>
       <c r="AK8" s="1">
         <v>19.322955</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.797000</v>
+        <v>974.79700000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.709600</v>
+        <v>-79.709599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>69572.966904</v>
+        <v>69572.966904000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.325824</v>
+        <v>19.325824000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.036000</v>
+        <v>983.03599999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.177500</v>
+        <v>-91.177499999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>69584.055961</v>
+        <v>69584.055961000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.328904</v>
+        <v>19.328904000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.009000</v>
+        <v>993.00900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.747000</v>
+        <v>-108.747</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>69594.777981</v>
+        <v>69594.777981000007</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.331883</v>
+        <v>19.331883000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.260000</v>
+        <v>-124.26</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>69604.962830</v>
+        <v>69604.962830000004</v>
       </c>
       <c r="BE8" s="1">
         <v>19.334712</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.660000</v>
+        <v>-195.66</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>69615.710146</v>
+        <v>69615.710145999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.337697</v>
+        <v>19.337696999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1107.940000</v>
+        <v>1107.94</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.741000</v>
+        <v>-310.74099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>69626.675697</v>
+        <v>69626.675696999999</v>
       </c>
       <c r="BO8" s="1">
         <v>19.340743</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.486000</v>
+        <v>-490.48599999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>69637.426980</v>
+        <v>69637.426980000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.343730</v>
+        <v>19.343730000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-686.465000</v>
+        <v>-686.46500000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>69648.222438</v>
+        <v>69648.222437999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.346728</v>
+        <v>19.346727999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.670000</v>
+        <v>1474.67</v>
       </c>
       <c r="CA8" s="1">
-        <v>-894.042000</v>
+        <v>-894.04200000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>69659.420118</v>
+        <v>69659.420117999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.349839</v>
+        <v>19.349838999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.670000</v>
+        <v>1826.67</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1384.760000</v>
+        <v>-1384.76</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>69489.670301</v>
+        <v>69489.670301000006</v>
       </c>
       <c r="B9" s="1">
-        <v>19.302686</v>
+        <v>19.302686000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>900.752000</v>
+        <v>900.75199999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.976000</v>
+        <v>-193.976</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>69500.096205</v>
+        <v>69500.096204999994</v>
       </c>
       <c r="G9" s="1">
-        <v>19.305582</v>
+        <v>19.305582000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.903000</v>
+        <v>917.90300000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.930000</v>
+        <v>-164.93</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>69510.533484</v>
       </c>
       <c r="L9" s="1">
-        <v>19.308482</v>
+        <v>19.308482000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>940.988000</v>
+        <v>940.98800000000006</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.013000</v>
+        <v>-118.01300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>69520.976254</v>
+        <v>69520.976253999994</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.311382</v>
+        <v>19.311381999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>947.707000</v>
+        <v>947.70699999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.614000</v>
+        <v>-102.614</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>69531.512767</v>
+        <v>69531.512766999993</v>
       </c>
       <c r="V9" s="1">
-        <v>19.314309</v>
+        <v>19.314309000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>954.661000</v>
+        <v>954.66099999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.187100</v>
+        <v>-88.187100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>69541.987318</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.317219</v>
+        <v>19.317219000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.258000</v>
+        <v>962.25800000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.061600</v>
+        <v>-77.061599999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>69552.522307</v>
+        <v>69552.522307000007</v>
       </c>
       <c r="AF9" s="1">
         <v>19.320145</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.135000</v>
+        <v>967.13499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.017300</v>
+        <v>-75.017300000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>69562.986407</v>
+        <v>69562.986407000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.323052</v>
+        <v>19.323052000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.766000</v>
+        <v>974.76599999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.674300</v>
+        <v>-79.674300000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>69573.687106</v>
+        <v>69573.687105999998</v>
       </c>
       <c r="AP9" s="1">
         <v>19.326024</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.035000</v>
+        <v>983.03499999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.167200</v>
+        <v>-91.167199999999994</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>69584.445817</v>
@@ -2415,28 +2831,28 @@
         <v>19.329013</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.003000</v>
+        <v>993.00300000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>69595.136127</v>
+        <v>69595.136127000005</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.331982</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.270000</v>
+        <v>-124.27</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>69605.325438</v>
@@ -2445,210 +2861,210 @@
         <v>19.334813</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.655000</v>
+        <v>-195.655</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>69616.083632</v>
+        <v>69616.083631999994</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.337801</v>
+        <v>19.337800999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.746000</v>
+        <v>-310.74599999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>69627.389472</v>
+        <v>69627.389471999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.340942</v>
+        <v>19.340941999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.504000</v>
+        <v>-490.50400000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>69637.551971</v>
+        <v>69637.551970999994</v>
       </c>
       <c r="BT9" s="1">
         <v>19.343764</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.830000</v>
+        <v>1338.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-686.501000</v>
+        <v>-686.50099999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>69648.332052</v>
+        <v>69648.332051999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.346759</v>
+        <v>19.346758999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.660000</v>
+        <v>1474.66</v>
       </c>
       <c r="CA9" s="1">
-        <v>-894.022000</v>
+        <v>-894.02200000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>69659.939590</v>
+        <v>69659.939589999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.349983</v>
+        <v>19.349983000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.310000</v>
+        <v>1825.31</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1384.290000</v>
+        <v>-1384.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>69490.086942</v>
+        <v>69490.086941999994</v>
       </c>
       <c r="B10" s="1">
         <v>19.302802</v>
       </c>
       <c r="C10" s="1">
-        <v>900.691000</v>
+        <v>900.69100000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.026000</v>
+        <v>-194.02600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>69500.373930</v>
+        <v>69500.373930000002</v>
       </c>
       <c r="G10" s="1">
-        <v>19.305659</v>
+        <v>19.305658999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.259000</v>
+        <v>917.25900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.984000</v>
+        <v>-164.98400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>69510.812272</v>
+        <v>69510.812271999996</v>
       </c>
       <c r="L10" s="1">
-        <v>19.308559</v>
+        <v>19.308558999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.828000</v>
+        <v>940.82799999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.076000</v>
+        <v>-118.07599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>69521.325437</v>
+        <v>69521.325437000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.311479</v>
+        <v>19.311478999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>947.710000</v>
+        <v>947.71</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>69531.858479</v>
+        <v>69531.858479000002</v>
       </c>
       <c r="V10" s="1">
-        <v>19.314405</v>
+        <v>19.314405000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.728000</v>
+        <v>954.72799999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.114600</v>
+        <v>-88.114599999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>69542.335015</v>
+        <v>69542.335015000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.317315</v>
+        <v>19.317315000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.310000</v>
+        <v>962.31</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.057400</v>
+        <v>-77.057400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>69553.206818</v>
+        <v>69553.206818000006</v>
       </c>
       <c r="AF10" s="1">
         <v>19.320335</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.325000</v>
+        <v>967.32500000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.063700</v>
+        <v>-75.063699999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>69563.680805</v>
+        <v>69563.680804999996</v>
       </c>
       <c r="AK10" s="1">
         <v>19.323245</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.808000</v>
+        <v>974.80799999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.688900</v>
+        <v>-79.688900000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>69574.046231</v>
@@ -2657,1525 +3073,1525 @@
         <v>19.326124</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.032000</v>
+        <v>983.03200000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.166700</v>
+        <v>-91.166700000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>69584.807897</v>
+        <v>69584.807897000006</v>
       </c>
       <c r="AU10" s="1">
         <v>19.329113</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.027000</v>
+        <v>993.02700000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.743000</v>
+        <v>-108.74299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>69595.498170</v>
+        <v>69595.498170000006</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.332083</v>
+        <v>19.332083000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.370000</v>
+        <v>1001.37</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.270000</v>
+        <v>-124.27</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>69606.002475</v>
+        <v>69606.002475000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.335001</v>
+        <v>19.335000999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.658000</v>
+        <v>-195.65799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>69616.794399</v>
+        <v>69616.794399000006</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.337998</v>
+        <v>19.337997999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1107.890000</v>
+        <v>1107.8900000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.767000</v>
+        <v>-310.767</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>69627.507984</v>
+        <v>69627.507983999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.340974</v>
+        <v>19.340973999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.495000</v>
+        <v>-490.495</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>69637.988946</v>
+        <v>69637.988945999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.343886</v>
+        <v>19.343886000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-686.618000</v>
+        <v>-686.61800000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>69648.765553</v>
+        <v>69648.765553000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.346879</v>
+        <v>19.346879000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.660000</v>
+        <v>1474.66</v>
       </c>
       <c r="CA10" s="1">
-        <v>-893.942000</v>
+        <v>-893.94200000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>69660.457716</v>
+        <v>69660.457716000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.350127</v>
+        <v>19.350127000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1825.640000</v>
+        <v>1825.64</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1383.820000</v>
+        <v>-1383.82</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>69490.362715</v>
+        <v>69490.362714999996</v>
       </c>
       <c r="B11" s="1">
-        <v>19.302879</v>
+        <v>19.302879000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>900.756000</v>
+        <v>900.75599999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.150000</v>
+        <v>-194.15</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>69500.722120</v>
+        <v>69500.722120000006</v>
       </c>
       <c r="G11" s="1">
-        <v>19.305756</v>
+        <v>19.305755999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>917.861000</v>
+        <v>917.86099999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.091000</v>
+        <v>-165.09100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>69511.155962</v>
+        <v>69511.155962000004</v>
       </c>
       <c r="L11" s="1">
-        <v>19.308654</v>
+        <v>19.308654000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.795000</v>
+        <v>940.79499999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.017000</v>
+        <v>-118.017</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>69521.674621</v>
+        <v>69521.674620999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.311576</v>
+        <v>19.311575999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>947.730000</v>
+        <v>947.73</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>69532.543951</v>
       </c>
       <c r="V11" s="1">
-        <v>19.314596</v>
+        <v>19.314596000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>954.640000</v>
+        <v>954.64</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.187900</v>
+        <v>-88.187899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>69543.033344</v>
+        <v>69543.033343999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.317509</v>
+        <v>19.317509000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.260000</v>
+        <v>962.26</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.078400</v>
+        <v>-77.078400000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>69553.552039</v>
+        <v>69553.552039000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.320431</v>
+        <v>19.320430999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.239000</v>
+        <v>967.23900000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.940500</v>
+        <v>-74.9405</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>69564.031476</v>
+        <v>69564.031476000004</v>
       </c>
       <c r="AK11" s="1">
         <v>19.323342</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.785000</v>
+        <v>974.78499999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.677800</v>
+        <v>-79.677800000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>69574.406331</v>
+        <v>69574.406331000006</v>
       </c>
       <c r="AP11" s="1">
         <v>19.326224</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.013000</v>
+        <v>983.01300000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.184400</v>
+        <v>-91.184399999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>69585.480504</v>
+        <v>69585.480504000006</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.329300</v>
+        <v>19.3293</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.013000</v>
+        <v>993.01300000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.754000</v>
+        <v>-108.754</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>69596.161840</v>
+        <v>69596.161840000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.332267</v>
+        <v>19.332267000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.277000</v>
+        <v>-124.277</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>69606.436445</v>
+        <v>69606.436444999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.335121</v>
+        <v>19.335121000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.400000</v>
+        <v>1040.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.673000</v>
+        <v>-195.673</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>69617.235343</v>
+        <v>69617.235342999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.338121</v>
+        <v>19.338121000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1107.930000</v>
+        <v>1107.93</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.771000</v>
+        <v>-310.77100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>69627.918177</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.341088</v>
+        <v>19.341087999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.503000</v>
+        <v>-490.50299999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>69638.414515</v>
+        <v>69638.414514999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.344004</v>
+        <v>19.344004000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.960000</v>
+        <v>1338.96</v>
       </c>
       <c r="BV11" s="1">
-        <v>-686.570000</v>
+        <v>-686.57</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>69649.188148</v>
+        <v>69649.188148000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.346997</v>
+        <v>19.346997000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.540000</v>
+        <v>1474.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-894.170000</v>
+        <v>-894.17</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>69661.007824</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.350280</v>
+        <v>19.350280000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.790000</v>
+        <v>1826.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1384.720000</v>
+        <v>-1384.72</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>69490.701941</v>
+        <v>69490.701941000007</v>
       </c>
       <c r="B12" s="1">
-        <v>19.302973</v>
+        <v>19.302973000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>900.748000</v>
+        <v>900.74800000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.165000</v>
+        <v>-194.16499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>69501.062871</v>
+        <v>69501.062871000002</v>
       </c>
       <c r="G12" s="1">
-        <v>19.305851</v>
+        <v>19.305851000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.100000</v>
+        <v>918.1</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.818000</v>
+        <v>-164.81800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>69511.501673</v>
+        <v>69511.501673000006</v>
       </c>
       <c r="L12" s="1">
-        <v>19.308750</v>
+        <v>19.30875</v>
       </c>
       <c r="M12" s="1">
-        <v>940.823000</v>
+        <v>940.82299999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.109000</v>
+        <v>-118.10899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>69522.368027</v>
+        <v>69522.368027000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.311769</v>
+        <v>19.311769000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>947.769000</v>
+        <v>947.76900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.621000</v>
+        <v>-102.621</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>69532.886226</v>
+        <v>69532.886226000002</v>
       </c>
       <c r="V12" s="1">
         <v>19.314691</v>
       </c>
       <c r="W12" s="1">
-        <v>954.610000</v>
+        <v>954.61</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.152300</v>
+        <v>-88.152299999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>69543.383199</v>
+        <v>69543.383199000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.317606</v>
+        <v>19.317606000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.303000</v>
+        <v>962.303</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.004900</v>
+        <v>-77.004900000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>69553.895234</v>
+        <v>69553.895233999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.320526</v>
+        <v>19.320526000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.279000</v>
+        <v>967.279</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.064400</v>
+        <v>-75.064400000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>69564.378210</v>
+        <v>69564.378209999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.323438</v>
+        <v>19.323437999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.759000</v>
+        <v>974.75900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.686200</v>
+        <v>-79.686199999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>69575.078409</v>
+        <v>69575.078408999994</v>
       </c>
       <c r="AP12" s="1">
         <v>19.326411</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.038000</v>
+        <v>983.03800000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.181300</v>
+        <v>-91.181299999999993</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>69585.907031</v>
+        <v>69585.907030999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.329419</v>
+        <v>19.329419000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.013000</v>
+        <v>993.01300000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>69596.602761</v>
+        <v>69596.602761000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.332390</v>
+        <v>19.33239</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.255000</v>
+        <v>-124.255</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>69606.794243</v>
+        <v>69606.794242999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.335221</v>
+        <v>19.335221000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.653000</v>
+        <v>-195.65299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>69617.707533</v>
+        <v>69617.707532999993</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.338252</v>
+        <v>19.338252000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.746000</v>
+        <v>-310.74599999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>69628.314517</v>
+        <v>69628.314517000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.341198</v>
+        <v>19.341197999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.509000</v>
+        <v>-490.50900000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>69638.842563</v>
+        <v>69638.842562999998</v>
       </c>
       <c r="BT12" s="1">
         <v>19.344123</v>
       </c>
       <c r="BU12" s="1">
-        <v>1339.020000</v>
+        <v>1339.02</v>
       </c>
       <c r="BV12" s="1">
-        <v>-686.645000</v>
+        <v>-686.64499999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>69649.607731</v>
+        <v>69649.607730999996</v>
       </c>
       <c r="BY12" s="1">
         <v>19.347113</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.680000</v>
+        <v>1474.68</v>
       </c>
       <c r="CA12" s="1">
-        <v>-893.988000</v>
+        <v>-893.98800000000006</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>69661.538500</v>
+        <v>69661.538499999995</v>
       </c>
       <c r="CD12" s="1">
         <v>19.350427</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.310000</v>
+        <v>1825.31</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1384.360000</v>
+        <v>-1384.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>69491.046164</v>
+        <v>69491.046163999999</v>
       </c>
       <c r="B13" s="1">
         <v>19.303068</v>
       </c>
       <c r="C13" s="1">
-        <v>900.651000</v>
+        <v>900.65099999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.177000</v>
+        <v>-194.17699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>69501.753588</v>
+        <v>69501.753588000007</v>
       </c>
       <c r="G13" s="1">
-        <v>19.306043</v>
+        <v>19.306042999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>918.211000</v>
+        <v>918.21100000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.079000</v>
+        <v>-165.07900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>69512.195577</v>
+        <v>69512.195577000006</v>
       </c>
       <c r="L13" s="1">
-        <v>19.308943</v>
+        <v>19.308942999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.778000</v>
+        <v>940.77800000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.220000</v>
+        <v>-118.22</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>69522.720219</v>
+        <v>69522.720218999995</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.311867</v>
+        <v>19.311866999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.757000</v>
+        <v>947.75699999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.597000</v>
+        <v>-102.59699999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>69533.231901</v>
+        <v>69533.231901000006</v>
       </c>
       <c r="V13" s="1">
-        <v>19.314787</v>
+        <v>19.314786999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.592000</v>
+        <v>954.59199999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.189600</v>
+        <v>-88.189599999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>69543.729759</v>
+        <v>69543.729758999994</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.317703</v>
+        <v>19.317703000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.290000</v>
+        <v>962.29</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.049800</v>
+        <v>-77.049800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>69554.546977</v>
+        <v>69554.546977000005</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.320707</v>
+        <v>19.320706999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.305000</v>
+        <v>967.30499999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.096200</v>
+        <v>-75.096199999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>69565.080019</v>
+        <v>69565.080019000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.323633</v>
+        <v>19.323633000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.771000</v>
+        <v>974.77099999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.685700</v>
+        <v>-79.685699999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>69575.513365</v>
+        <v>69575.513365000006</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.326531</v>
+        <v>19.326530999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.043000</v>
+        <v>983.04300000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.184100</v>
+        <v>-91.184100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>69586.270598</v>
+        <v>69586.270598000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.329520</v>
+        <v>19.329519999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.007000</v>
+        <v>993.00699999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.730000</v>
+        <v>-108.73</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>69596.960905</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.332489</v>
+        <v>19.332488999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.243000</v>
+        <v>-124.24299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>69607.157163</v>
+        <v>69607.157162999996</v>
       </c>
       <c r="BE13" s="1">
         <v>19.335321</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.400000</v>
+        <v>1040.4000000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.663000</v>
+        <v>-195.66300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>69618.012573</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.338337</v>
+        <v>19.338336999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1107.880000</v>
+        <v>1107.8800000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.792000</v>
+        <v>-310.79199999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>69628.735121</v>
+        <v>69628.735121000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.341315</v>
+        <v>19.341315000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.508000</v>
+        <v>-490.50799999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>69639.258209</v>
+        <v>69639.258209000007</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.344238</v>
+        <v>19.344238000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1339.080000</v>
+        <v>1339.08</v>
       </c>
       <c r="BV13" s="1">
-        <v>-686.631000</v>
+        <v>-686.63099999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>69650.035816</v>
+        <v>69650.035816000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.347232</v>
+        <v>19.347232000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.690000</v>
+        <v>1474.69</v>
       </c>
       <c r="CA13" s="1">
-        <v>-893.962000</v>
+        <v>-893.96199999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>69662.055938</v>
+        <v>69662.055938000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.350571</v>
+        <v>19.350570999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1825.500000</v>
+        <v>1825.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1385.830000</v>
+        <v>-1385.83</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>69491.726677</v>
+        <v>69491.726676999999</v>
       </c>
       <c r="B14" s="1">
-        <v>19.303257</v>
+        <v>19.303256999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>900.799000</v>
+        <v>900.79899999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.043000</v>
+        <v>-194.04300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>69502.096534</v>
+        <v>69502.096533999997</v>
       </c>
       <c r="G14" s="1">
-        <v>19.306138</v>
+        <v>19.306138000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>917.880000</v>
+        <v>917.88</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.271000</v>
+        <v>-165.27099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>69512.548261</v>
+        <v>69512.548261000004</v>
       </c>
       <c r="L14" s="1">
-        <v>19.309041</v>
+        <v>19.309041000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>940.682000</v>
+        <v>940.68200000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.107000</v>
+        <v>-118.107</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>69523.069371</v>
+        <v>69523.069371000005</v>
       </c>
       <c r="Q14" s="1">
         <v>19.311964</v>
       </c>
       <c r="R14" s="1">
-        <v>947.721000</v>
+        <v>947.721</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.615000</v>
+        <v>-102.61499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>69533.883149</v>
+        <v>69533.883149000001</v>
       </c>
       <c r="V14" s="1">
         <v>19.314968</v>
       </c>
       <c r="W14" s="1">
-        <v>954.603000</v>
+        <v>954.60299999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.253500</v>
+        <v>-88.253500000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>69544.387956</v>
+        <v>69544.387956000006</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.317886</v>
+        <v>19.317886000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.261000</v>
+        <v>962.26099999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.046800</v>
+        <v>-77.046800000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>69554.924433</v>
+        <v>69554.924432999993</v>
       </c>
       <c r="AF14" s="1">
         <v>19.320812</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.402000</v>
+        <v>967.40200000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.170900</v>
+        <v>-75.170900000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>69565.424738</v>
+        <v>69565.424738000002</v>
       </c>
       <c r="AK14" s="1">
         <v>19.323729</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.776000</v>
+        <v>974.77599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.717800</v>
+        <v>-79.717799999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>69575.872009</v>
+        <v>69575.872008999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.326631</v>
+        <v>19.326630999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.031000</v>
+        <v>983.03099999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.169400</v>
+        <v>-91.169399999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>69586.632182</v>
+        <v>69586.632182000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.329620</v>
+        <v>19.329619999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.021000</v>
+        <v>993.02099999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.725000</v>
+        <v>-108.72499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>69597.318984</v>
+        <v>69597.318983999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.332589</v>
+        <v>19.332588999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.330000</v>
+        <v>1001.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.276000</v>
+        <v>-124.276</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>69607.593115</v>
+        <v>69607.593114999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.335443</v>
+        <v>19.335443000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.668000</v>
+        <v>-195.66800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>69618.763517</v>
+        <v>69618.763516999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>19.338545</v>
       </c>
       <c r="BK14" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.749000</v>
+        <v>-310.74900000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>69629.133870</v>
+        <v>69629.133870000005</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.341426</v>
+        <v>19.341425999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.510000</v>
+        <v>-490.51</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>69639.687249</v>
+        <v>69639.687248999995</v>
       </c>
       <c r="BT14" s="1">
         <v>19.344358</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="BV14" s="1">
-        <v>-686.722000</v>
+        <v>-686.72199999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>69650.452450</v>
+        <v>69650.452449999997</v>
       </c>
       <c r="BY14" s="1">
         <v>19.347348</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.560000</v>
+        <v>1474.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-894.046000</v>
+        <v>-894.04600000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>69662.576627</v>
+        <v>69662.576627000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.350716</v>
+        <v>19.350715999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.770000</v>
+        <v>1826.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1385.200000</v>
+        <v>-1385.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>69492.069942</v>
+        <v>69492.069942000002</v>
       </c>
       <c r="B15" s="1">
-        <v>19.303353</v>
+        <v>19.303353000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>900.848000</v>
+        <v>900.84799999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.222000</v>
+        <v>-194.22200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>69502.445254</v>
+        <v>69502.445254000006</v>
       </c>
       <c r="G15" s="1">
-        <v>19.306235</v>
+        <v>19.306235000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.778000</v>
+        <v>917.77800000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.678000</v>
+        <v>-164.678</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>69513.194055</v>
       </c>
       <c r="L15" s="1">
-        <v>19.309221</v>
+        <v>19.309221000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>940.844000</v>
+        <v>940.84400000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.085000</v>
+        <v>-118.08499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>69523.726074</v>
+        <v>69523.726074000006</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.312146</v>
+        <v>19.312145999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>947.699000</v>
+        <v>947.69899999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.593000</v>
+        <v>-102.593</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>69534.261099</v>
+        <v>69534.261098999996</v>
       </c>
       <c r="V15" s="1">
-        <v>19.315073</v>
+        <v>19.315073000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>954.660000</v>
+        <v>954.66</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.257100</v>
+        <v>-88.257099999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>69544.774302</v>
+        <v>69544.774302000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.317993</v>
+        <v>19.317993000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.254000</v>
+        <v>962.25400000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.027200</v>
+        <v>-77.027199999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>69555.271137</v>
+        <v>69555.271137000003</v>
       </c>
       <c r="AF15" s="1">
         <v>19.320909</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.247000</v>
+        <v>967.24699999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.951300</v>
+        <v>-74.951300000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>69565.773458</v>
+        <v>69565.773457999996</v>
       </c>
       <c r="AK15" s="1">
         <v>19.323826</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.805000</v>
+        <v>974.80499999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.685900</v>
+        <v>-79.685900000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>69576.235045</v>
+        <v>69576.235044999994</v>
       </c>
       <c r="AP15" s="1">
         <v>19.326732</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.034000</v>
+        <v>983.03399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.181500</v>
+        <v>-91.1815</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>69587.052790</v>
+        <v>69587.052790000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.329737</v>
+        <v>19.329737000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.017000</v>
+        <v>993.01700000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.753000</v>
+        <v>-108.753</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>69597.733672</v>
+        <v>69597.733672000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>19.332704</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.258000</v>
+        <v>-124.258</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>69607.879308</v>
+        <v>69607.879308000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.335522</v>
+        <v>19.335522000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.440000</v>
+        <v>1040.44</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.675000</v>
+        <v>-195.67500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>69619.162796</v>
+        <v>69619.162796000004</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.338656</v>
       </c>
       <c r="BK15" s="1">
-        <v>1107.910000</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.761000</v>
+        <v>-310.76100000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>69629.552990</v>
+        <v>69629.552989999996</v>
       </c>
       <c r="BO15" s="1">
         <v>19.341542</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.519000</v>
+        <v>-490.51900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>69640.099423</v>
+        <v>69640.099423000007</v>
       </c>
       <c r="BT15" s="1">
         <v>19.344472</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="BV15" s="1">
-        <v>-686.615000</v>
+        <v>-686.61500000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>69650.898818</v>
+        <v>69650.898818000001</v>
       </c>
       <c r="BY15" s="1">
         <v>19.347472</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.650000</v>
+        <v>1474.65</v>
       </c>
       <c r="CA15" s="1">
-        <v>-894.044000</v>
+        <v>-894.04399999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>69663.093458</v>
+        <v>69663.093458000003</v>
       </c>
       <c r="CD15" s="1">
         <v>19.350859</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.130000</v>
+        <v>1826.13</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1385.440000</v>
+        <v>-1385.44</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>69492.412148</v>
+        <v>69492.412148000003</v>
       </c>
       <c r="B16" s="1">
-        <v>19.303448</v>
+        <v>19.303447999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>900.904000</v>
+        <v>900.904</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.235000</v>
+        <v>-194.23500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>69503.108373</v>
+        <v>69503.108372999995</v>
       </c>
       <c r="G16" s="1">
-        <v>19.306419</v>
+        <v>19.306419000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>917.700000</v>
+        <v>917.7</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.176000</v>
+        <v>-165.17599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>69513.582404</v>
+        <v>69513.582404000001</v>
       </c>
       <c r="L16" s="1">
-        <v>19.309328</v>
+        <v>19.309328000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.866000</v>
+        <v>940.86599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.143000</v>
+        <v>-118.143</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>69524.114473</v>
+        <v>69524.114472999994</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.312254</v>
+        <v>19.312253999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.728000</v>
+        <v>947.72799999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.613000</v>
+        <v>-102.613</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>69534.605850</v>
+        <v>69534.605850000007</v>
       </c>
       <c r="V16" s="1">
         <v>19.315168</v>
       </c>
       <c r="W16" s="1">
-        <v>954.701000</v>
+        <v>954.70100000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.193400</v>
+        <v>-88.193399999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>69545.124476</v>
+        <v>69545.124475999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.318090</v>
+        <v>19.318090000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.296000</v>
+        <v>962.29600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.999200</v>
+        <v>-76.999200000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>69555.620815</v>
+        <v>69555.620815000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.321006</v>
+        <v>19.321006000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.351000</v>
+        <v>967.351</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.014100</v>
+        <v>-75.014099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>69566.196054</v>
@@ -4184,2236 +4600,2236 @@
         <v>19.323943</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.810000</v>
+        <v>974.81</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.704600</v>
+        <v>-79.704599999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>69576.639781</v>
+        <v>69576.639781000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.326844</v>
+        <v>19.326844000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.033000</v>
+        <v>983.03300000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.164600</v>
+        <v>-91.164599999999993</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>69587.363321</v>
+        <v>69587.363320999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.329823</v>
+        <v>19.329823000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.020000</v>
+        <v>993.02</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.729000</v>
+        <v>-108.729</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>69598.038681</v>
+        <v>69598.038681000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.332789</v>
+        <v>19.332788999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.280000</v>
+        <v>-124.28</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>69608.241883</v>
+        <v>69608.241882999995</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.335623</v>
+        <v>19.335622999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.658000</v>
+        <v>-195.65799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>69619.540251</v>
+        <v>69619.540250999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.338761</v>
+        <v>19.338761000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1107.910000</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.753000</v>
+        <v>-310.75299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>69629.946847</v>
+        <v>69629.946846999999</v>
       </c>
       <c r="BO16" s="1">
         <v>19.341652</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.150000</v>
+        <v>1217.1500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.524000</v>
+        <v>-490.524</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>69640.530950</v>
+        <v>69640.53095</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.344592</v>
+        <v>19.344591999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.300000</v>
+        <v>1339.3</v>
       </c>
       <c r="BV16" s="1">
-        <v>-686.666000</v>
+        <v>-686.66600000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>69651.327895</v>
+        <v>69651.327894999995</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.347591</v>
+        <v>19.347591000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.700000</v>
+        <v>1474.7</v>
       </c>
       <c r="CA16" s="1">
-        <v>-894.104000</v>
+        <v>-894.10400000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>69663.646002</v>
+        <v>69663.646001999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.351013</v>
+        <v>19.351012999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1825.390000</v>
+        <v>1825.39</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1385.730000</v>
+        <v>-1385.73</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>69493.071826</v>
+        <v>69493.071825999999</v>
       </c>
       <c r="B17" s="1">
-        <v>19.303631</v>
+        <v>19.303630999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>900.629000</v>
+        <v>900.62900000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.114000</v>
+        <v>-194.114</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>69503.476438</v>
+        <v>69503.476437999998</v>
       </c>
       <c r="G17" s="1">
         <v>19.306521</v>
       </c>
       <c r="H17" s="1">
-        <v>918.246000</v>
+        <v>918.24599999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.341000</v>
+        <v>-165.34100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>69513.929095</v>
       </c>
       <c r="L17" s="1">
-        <v>19.309425</v>
+        <v>19.309425000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>940.669000</v>
+        <v>940.66899999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.166000</v>
+        <v>-118.166</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>69524.465112</v>
+        <v>69524.465112000005</v>
       </c>
       <c r="Q17" s="1">
         <v>19.312351</v>
       </c>
       <c r="R17" s="1">
-        <v>947.764000</v>
+        <v>947.76400000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>69534.955035</v>
+        <v>69534.955035000006</v>
       </c>
       <c r="V17" s="1">
         <v>19.315265</v>
       </c>
       <c r="W17" s="1">
-        <v>954.658000</v>
+        <v>954.65800000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.203100</v>
+        <v>-88.203100000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>69545.472669</v>
+        <v>69545.472668999995</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.318187</v>
+        <v>19.318187000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.246000</v>
+        <v>962.24599999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.030700</v>
+        <v>-77.030699999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>69556.040926</v>
+        <v>69556.040926000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.321122</v>
+        <v>19.321121999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.359000</v>
+        <v>967.35900000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.902100</v>
+        <v>-74.902100000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>69566.470833</v>
+        <v>69566.470832999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.324020</v>
+        <v>19.324020000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.804000</v>
+        <v>974.80399999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.677300</v>
+        <v>-79.677300000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>69576.953747</v>
+        <v>69576.953747000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.326932</v>
+        <v>19.326931999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.021000</v>
+        <v>983.02099999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.180500</v>
+        <v>-91.180499999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>69587.727846</v>
+        <v>69587.727845999994</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.329924</v>
+        <v>19.329923999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.007000</v>
+        <v>993.00699999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>69598.395006</v>
+        <v>69598.395006000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.332888</v>
+        <v>19.332888000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.258000</v>
+        <v>-124.258</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>69608.600985</v>
+        <v>69608.600984999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.335722</v>
+        <v>19.335722000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.639000</v>
+        <v>-195.63900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>69620.314010</v>
+        <v>69620.314010000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.338976</v>
+        <v>19.338975999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.768000</v>
+        <v>-310.76799999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>69630.379821</v>
+        <v>69630.379820999995</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.341772</v>
+        <v>19.341771999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.100000</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.511000</v>
+        <v>-490.51100000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>69640.957807</v>
+        <v>69640.957806999999</v>
       </c>
       <c r="BT17" s="1">
         <v>19.344711</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.340000</v>
+        <v>1339.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-686.563000</v>
+        <v>-686.56299999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>69651.744000</v>
+        <v>69651.744000000006</v>
       </c>
       <c r="BY17" s="1">
         <v>19.347707</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.710000</v>
+        <v>1474.71</v>
       </c>
       <c r="CA17" s="1">
-        <v>-894.022000</v>
+        <v>-894.02200000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>69664.175268</v>
+        <v>69664.175268000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.351160</v>
+        <v>19.35116</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.870000</v>
+        <v>1826.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.330000</v>
+        <v>-1385.33</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>69493.437686</v>
+        <v>69493.437686000005</v>
       </c>
       <c r="B18" s="1">
-        <v>19.303733</v>
+        <v>19.303733000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>900.723000</v>
+        <v>900.72299999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.077000</v>
+        <v>-194.077</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>69503.819637</v>
+        <v>69503.819636999993</v>
       </c>
       <c r="G18" s="1">
-        <v>19.306617</v>
+        <v>19.306616999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>917.775000</v>
+        <v>917.77499999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.042000</v>
+        <v>-165.042</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>69514.274837</v>
+        <v>69514.274837000004</v>
       </c>
       <c r="L18" s="1">
         <v>19.309521</v>
       </c>
       <c r="M18" s="1">
-        <v>940.831000</v>
+        <v>940.83100000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.113000</v>
+        <v>-118.113</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>69524.809346</v>
+        <v>69524.809345999995</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.312447</v>
+        <v>19.312446999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.766000</v>
+        <v>947.76599999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.609000</v>
+        <v>-102.60899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>69535.376604</v>
+        <v>69535.376604000005</v>
       </c>
       <c r="V18" s="1">
         <v>19.315382</v>
       </c>
       <c r="W18" s="1">
-        <v>954.602000</v>
+        <v>954.60199999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.207000</v>
+        <v>-88.206999999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>69545.898733</v>
+        <v>69545.898732999995</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.318305</v>
+        <v>19.318304999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.274000</v>
+        <v>962.274</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.943400</v>
+        <v>-76.943399999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>69556.319678</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.321200</v>
+        <v>19.321200000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.340000</v>
+        <v>967.34</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.134400</v>
+        <v>-75.134399999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>69566.814402</v>
+        <v>69566.814402000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.324115</v>
+        <v>19.324114999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.774000</v>
+        <v>974.774</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.691000</v>
+        <v>-79.691000000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>69577.315362</v>
+        <v>69577.315361999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.327032</v>
+        <v>19.327031999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.032000</v>
+        <v>983.03200000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.167000</v>
+        <v>-91.167000000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>69588.091908</v>
+        <v>69588.091908000002</v>
       </c>
       <c r="AU18" s="1">
         <v>19.330026</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.018000</v>
+        <v>993.01800000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.705000</v>
+        <v>-108.705</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>69598.755398</v>
+        <v>69598.755397999994</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.332988</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.270000</v>
+        <v>-124.27</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>69609.325145</v>
+        <v>69609.325144999995</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.335924</v>
+        <v>19.335923999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.410000</v>
+        <v>1040.4100000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.662000</v>
+        <v>-195.66200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>69620.688524</v>
+        <v>69620.688523999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.339080</v>
+        <v>19.339079999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1107.920000</v>
+        <v>1107.92</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>69630.769212</v>
+        <v>69630.769211999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.341880</v>
+        <v>19.34188</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.521000</v>
+        <v>-490.52100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>69641.368191</v>
+        <v>69641.368191000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.344824</v>
+        <v>19.344823999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.390000</v>
+        <v>1339.39</v>
       </c>
       <c r="BV18" s="1">
-        <v>-686.591000</v>
+        <v>-686.59100000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>69652.192384</v>
+        <v>69652.192383999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.347831</v>
+        <v>19.347830999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.630000</v>
+        <v>1474.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-894.124000</v>
+        <v>-894.12400000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>69665.007550</v>
+        <v>69665.007549999995</v>
       </c>
       <c r="CD18" s="1">
         <v>19.351391</v>
       </c>
       <c r="CE18" s="1">
-        <v>1826.270000</v>
+        <v>1826.27</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1384.460000</v>
+        <v>-1384.46</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>69493.778626</v>
+        <v>69493.778625999999</v>
       </c>
       <c r="B19" s="1">
-        <v>19.303827</v>
+        <v>19.303826999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>900.736000</v>
+        <v>900.73599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.092000</v>
+        <v>-194.09200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>69504.164883</v>
+        <v>69504.164883000005</v>
       </c>
       <c r="G19" s="1">
-        <v>19.306712</v>
+        <v>19.306712000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>918.207000</v>
+        <v>918.20699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.935000</v>
+        <v>-164.935</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>69514.695909</v>
+        <v>69514.695909000002</v>
       </c>
       <c r="L19" s="1">
         <v>19.309638</v>
       </c>
       <c r="M19" s="1">
-        <v>940.748000</v>
+        <v>940.74800000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.093000</v>
+        <v>-118.093</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>69525.231960</v>
+        <v>69525.231960000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.312564</v>
+        <v>19.312563999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>947.758000</v>
+        <v>947.75800000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.613000</v>
+        <v>-102.613</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>69535.657835</v>
+        <v>69535.657835000005</v>
       </c>
       <c r="V19" s="1">
-        <v>19.315461</v>
+        <v>19.315460999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.519000</v>
+        <v>954.51900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.202700</v>
+        <v>-88.202699999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>69546.173553</v>
+        <v>69546.173553000001</v>
       </c>
       <c r="AA19" s="1">
         <v>19.318382</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.310000</v>
+        <v>962.31</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.078900</v>
+        <v>-77.078900000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69556.663901</v>
+        <v>69556.663901000007</v>
       </c>
       <c r="AF19" s="1">
         <v>19.321296</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.381000</v>
+        <v>967.38099999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.019800</v>
+        <v>-75.019800000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>69567.168680</v>
+        <v>69567.168680000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.324214</v>
+        <v>19.324214000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.780000</v>
+        <v>974.78</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.695400</v>
+        <v>-79.695400000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>69577.675426</v>
+        <v>69577.675426000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.327132</v>
+        <v>19.327131999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.042000</v>
+        <v>983.04200000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.180000</v>
+        <v>-91.18</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>69588.826980</v>
+        <v>69588.826979999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.330230</v>
+        <v>19.33023</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.016000</v>
+        <v>993.01599999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>69599.469638</v>
+        <v>69599.469637999995</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.333186</v>
+        <v>19.333186000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.272000</v>
+        <v>-124.27200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>69609.685239</v>
+        <v>69609.685238999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.336024</v>
+        <v>19.336023999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.681000</v>
+        <v>-195.68100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>69621.066441</v>
+        <v>69621.066441000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.339185</v>
+        <v>19.339185000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1107.920000</v>
+        <v>1107.92</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.809000</v>
+        <v>-310.80900000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>69631.188828</v>
+        <v>69631.188827999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.341997</v>
+        <v>19.341996999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.524000</v>
+        <v>-490.524</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>69642.112717</v>
+        <v>69642.112716999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.345031</v>
+        <v>19.345030999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.440000</v>
+        <v>1339.44</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.482000</v>
+        <v>-686.48199999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>69652.928484</v>
+        <v>69652.928484000004</v>
       </c>
       <c r="BY19" s="1">
         <v>19.348036</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.650000</v>
+        <v>1474.65</v>
       </c>
       <c r="CA19" s="1">
-        <v>-893.956000</v>
+        <v>-893.95600000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>69665.212398</v>
+        <v>69665.212398000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.351448</v>
+        <v>19.351448000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1825.060000</v>
+        <v>1825.06</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1385.100000</v>
+        <v>-1385.1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>69494.121216</v>
       </c>
       <c r="B20" s="1">
-        <v>19.303923</v>
+        <v>19.303923000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>900.800000</v>
+        <v>900.8</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.126000</v>
+        <v>-194.126</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>69504.583475</v>
+        <v>69504.583475000007</v>
       </c>
       <c r="G20" s="1">
         <v>19.306829</v>
       </c>
       <c r="H20" s="1">
-        <v>918.039000</v>
+        <v>918.03899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.808000</v>
+        <v>-164.80799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>69514.988549</v>
+        <v>69514.988549000002</v>
       </c>
       <c r="L20" s="1">
-        <v>19.309719</v>
+        <v>19.309719000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.777000</v>
+        <v>940.77700000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.157000</v>
+        <v>-118.157</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>69525.519607</v>
+        <v>69525.519606999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.312644</v>
+        <v>19.312643999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.753000</v>
+        <v>947.75300000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.606000</v>
+        <v>-102.60599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>69536.002058</v>
+        <v>69536.002057999998</v>
       </c>
       <c r="V20" s="1">
-        <v>19.315556</v>
+        <v>19.315556000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.614000</v>
+        <v>954.61400000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.294500</v>
+        <v>-88.294499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>69546.521708</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.318478</v>
+        <v>19.318477999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.304000</v>
+        <v>962.30399999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.025900</v>
+        <v>-77.025899999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>69557.012094</v>
+        <v>69557.012094000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.321392</v>
+        <v>19.321391999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.303000</v>
+        <v>967.303</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.941600</v>
+        <v>-74.941599999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>69567.864422</v>
+        <v>69567.864421999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.324407</v>
+        <v>19.324407000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.775000</v>
+        <v>974.77499999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.696900</v>
+        <v>-79.696899999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>69578.402594</v>
+        <v>69578.402593999999</v>
       </c>
       <c r="AP20" s="1">
         <v>19.327334</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.026000</v>
+        <v>983.02599999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.166100</v>
+        <v>-91.1661</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>69589.207943</v>
+        <v>69589.207943000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.330336</v>
+        <v>19.330335999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.011000</v>
+        <v>993.01099999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.726000</v>
+        <v>-108.726</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>69599.832212</v>
+        <v>69599.832211999994</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.333287</v>
+        <v>19.333286999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.260000</v>
+        <v>-124.26</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>69610.047816</v>
+        <v>69610.047816000006</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.336124</v>
+        <v>19.336124000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.684000</v>
+        <v>-195.684</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>69621.747448</v>
+        <v>69621.747447999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.339374</v>
+        <v>19.339373999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1107.920000</v>
+        <v>1107.92</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.776000</v>
+        <v>-310.77600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>69631.893146</v>
+        <v>69631.893146000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.342193</v>
+        <v>19.342193000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.525000</v>
+        <v>-490.52499999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>69642.225277</v>
+        <v>69642.225277000005</v>
       </c>
       <c r="BT20" s="1">
         <v>19.345063</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.450000</v>
+        <v>1339.45</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.434000</v>
+        <v>-686.43399999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>69653.053952</v>
+        <v>69653.053952000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.348071</v>
+        <v>19.348071000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.530000</v>
+        <v>1474.53</v>
       </c>
       <c r="CA20" s="1">
-        <v>-894.221000</v>
+        <v>-894.221</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>69665.731217</v>
+        <v>69665.731216999993</v>
       </c>
       <c r="CD20" s="1">
         <v>19.351592</v>
       </c>
       <c r="CE20" s="1">
-        <v>1824.980000</v>
+        <v>1824.98</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1384.700000</v>
+        <v>-1384.7</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>69494.554915</v>
+        <v>69494.554915000001</v>
       </c>
       <c r="B21" s="1">
         <v>19.304043</v>
       </c>
       <c r="C21" s="1">
-        <v>900.736000</v>
+        <v>900.73599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.195000</v>
+        <v>-194.19499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>69504.861762</v>
       </c>
       <c r="G21" s="1">
-        <v>19.306906</v>
+        <v>19.306906000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.960000</v>
+        <v>917.96</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.971000</v>
+        <v>-164.971</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>69515.330325</v>
+        <v>69515.330325000003</v>
       </c>
       <c r="L21" s="1">
-        <v>19.309814</v>
+        <v>19.309813999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.721000</v>
+        <v>940.721</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.282000</v>
+        <v>-118.282</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>69525.866808</v>
+        <v>69525.866808000006</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.312741</v>
+        <v>19.312740999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>947.725000</v>
+        <v>947.72500000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.541000</v>
+        <v>-102.541</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>69536.343832</v>
+        <v>69536.343831999999</v>
       </c>
       <c r="V21" s="1">
-        <v>19.315651</v>
+        <v>19.315650999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.519000</v>
+        <v>954.51900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.227900</v>
+        <v>-88.227900000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>69546.898668</v>
+        <v>69546.898667999994</v>
       </c>
       <c r="AA21" s="1">
         <v>19.318583</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.253000</v>
+        <v>962.25300000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.022000</v>
+        <v>-77.022000000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>69557.694588</v>
+        <v>69557.694587999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.321582</v>
+        <v>19.321581999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.219000</v>
+        <v>967.21900000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.968700</v>
+        <v>-74.968699999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>69568.212255</v>
+        <v>69568.212255000006</v>
       </c>
       <c r="AK21" s="1">
         <v>19.324503</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.806000</v>
+        <v>974.80600000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.685600</v>
+        <v>-79.685599999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>69578.780065</v>
+        <v>69578.780064999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.327439</v>
+        <v>19.327438999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.032000</v>
+        <v>983.03200000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.175800</v>
+        <v>-91.175799999999995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>69589.569988</v>
+        <v>69589.569988000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.330436</v>
+        <v>19.330435999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.001000</v>
+        <v>993.00099999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.752000</v>
+        <v>-108.752</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>69600.191349</v>
+        <v>69600.191349000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.333386</v>
+        <v>19.333386000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>69610.717942</v>
+        <v>69610.717942000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.336311</v>
+        <v>19.336310999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.663000</v>
+        <v>-195.66300000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>69621.859752</v>
+        <v>69621.859752000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.339405</v>
+        <v>19.339404999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1107.890000</v>
+        <v>1107.8900000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.772000</v>
+        <v>-310.77199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>69632.022572</v>
+        <v>69632.022572000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.342228</v>
+        <v>19.342227999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.498000</v>
+        <v>-490.49799999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>69642.664236</v>
+        <v>69642.664235999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.345185</v>
+        <v>19.345185000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.410000</v>
+        <v>1339.41</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.392000</v>
+        <v>-686.39200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>69653.481487</v>
+        <v>69653.481486999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.348189</v>
+        <v>19.348189000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.570000</v>
+        <v>1474.57</v>
       </c>
       <c r="CA21" s="1">
-        <v>-893.974000</v>
+        <v>-893.97400000000005</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>69666.280253</v>
+        <v>69666.280253000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.351745</v>
+        <v>19.351745000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.080000</v>
+        <v>1826.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1384.280000</v>
+        <v>-1384.28</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>69494.817743</v>
+        <v>69494.817743000007</v>
       </c>
       <c r="B22" s="1">
         <v>19.304116</v>
       </c>
       <c r="C22" s="1">
-        <v>900.671000</v>
+        <v>900.67100000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.045000</v>
+        <v>-194.04499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>69505.206947</v>
+        <v>69505.206946999999</v>
       </c>
       <c r="G22" s="1">
-        <v>19.307002</v>
+        <v>19.307002000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.284000</v>
+        <v>918.28399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.532000</v>
+        <v>-164.53200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>69515.677028</v>
+        <v>69515.677028000006</v>
       </c>
       <c r="L22" s="1">
-        <v>19.309910</v>
+        <v>19.309909999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>940.821000</v>
+        <v>940.82100000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.157000</v>
+        <v>-118.157</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>69526.214998</v>
+        <v>69526.214997999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.312837</v>
+        <v>19.312836999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>947.765000</v>
+        <v>947.76499999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.563000</v>
+        <v>-102.563</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>69537.030263</v>
+        <v>69537.030262999993</v>
       </c>
       <c r="V22" s="1">
         <v>19.315842</v>
       </c>
       <c r="W22" s="1">
-        <v>954.639000</v>
+        <v>954.63900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.114000</v>
+        <v>-88.114000000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>69547.571241</v>
+        <v>69547.571240999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.318770</v>
+        <v>19.318770000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.283000</v>
+        <v>962.28300000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.052200</v>
+        <v>-77.052199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>69558.039805</v>
+        <v>69558.039804999993</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.321678</v>
+        <v>19.321677999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.255000</v>
+        <v>967.255</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.108600</v>
+        <v>-75.108599999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>69568.564549</v>
+        <v>69568.564549000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.324601</v>
+        <v>19.324601000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.778000</v>
+        <v>974.77800000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.710300</v>
+        <v>-79.710300000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>69579.140145</v>
+        <v>69579.140144999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.327539</v>
+        <v>19.327539000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.046000</v>
+        <v>983.04600000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.185000</v>
+        <v>-91.185000000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>69590.252026</v>
+        <v>69590.252026000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.330626</v>
+        <v>19.330625999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.004000</v>
+        <v>993.00400000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.724000</v>
+        <v>-108.724</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>69600.633289</v>
+        <v>69600.633289000005</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.333509</v>
+        <v>19.333508999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>69611.155878</v>
+        <v>69611.155878000005</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.336432</v>
+        <v>19.336431999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.676000</v>
+        <v>-195.67599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>69622.216167</v>
+        <v>69622.216167000006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.339504</v>
+        <v>19.339504000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1107.920000</v>
+        <v>1107.92</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>69632.431275</v>
+        <v>69632.431274999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.342342</v>
+        <v>19.342341999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.517000</v>
+        <v>-490.517</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>69643.078894</v>
+        <v>69643.078894000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.345300</v>
+        <v>19.345300000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.390000</v>
+        <v>1339.39</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.344000</v>
+        <v>-686.34400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>69654.126287</v>
+        <v>69654.126287000006</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.348368</v>
+        <v>19.348368000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.640000</v>
+        <v>1474.64</v>
       </c>
       <c r="CA22" s="1">
-        <v>-894.125000</v>
+        <v>-894.125</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>69666.812958</v>
+        <v>69666.812957999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.351892</v>
+        <v>19.351891999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.300000</v>
+        <v>1825.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1385.300000</v>
+        <v>-1385.3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>69495.162472</v>
+        <v>69495.162471999996</v>
       </c>
       <c r="B23" s="1">
         <v>19.304212</v>
       </c>
       <c r="C23" s="1">
-        <v>900.605000</v>
+        <v>900.60500000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.143000</v>
+        <v>-194.143</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>69505.549713</v>
       </c>
       <c r="G23" s="1">
-        <v>19.307097</v>
+        <v>19.307096999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>918.060000</v>
+        <v>918.06</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.766000</v>
+        <v>-164.76599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>69516.367428</v>
+        <v>69516.367427999998</v>
       </c>
       <c r="L23" s="1">
-        <v>19.310102</v>
+        <v>19.310102000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.790000</v>
+        <v>940.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>69526.913366</v>
+        <v>69526.913365999993</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.313031</v>
+        <v>19.313030999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>947.778000</v>
+        <v>947.77800000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.565000</v>
+        <v>-102.565</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>69537.373999</v>
+        <v>69537.373999000003</v>
       </c>
       <c r="V23" s="1">
-        <v>19.315937</v>
+        <v>19.315937000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>954.631000</v>
+        <v>954.63099999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.233900</v>
+        <v>-88.233900000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>69547.914010</v>
+        <v>69547.914009999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.318865</v>
+        <v>19.318864999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.299000</v>
+        <v>962.29899999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.009200</v>
+        <v>-77.009200000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>69558.381889</v>
+        <v>69558.381888999997</v>
       </c>
       <c r="AF23" s="1">
         <v>19.321773</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.317000</v>
+        <v>967.31700000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.060500</v>
+        <v>-75.060500000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>69569.222109</v>
+        <v>69569.222108999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.324784</v>
+        <v>19.324784000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.789000</v>
+        <v>974.78899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.698800</v>
+        <v>-79.698800000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>69579.814672</v>
+        <v>69579.814671999993</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.327726</v>
+        <v>19.327725999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.036000</v>
+        <v>983.03599999999994</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.179800</v>
+        <v>-91.1798</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>69590.695409</v>
+        <v>69590.695409000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.330749</v>
+        <v>19.330749000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.017000</v>
+        <v>993.01700000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.731000</v>
+        <v>-108.73099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>69600.907539</v>
+        <v>69600.907539000007</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.333585</v>
+        <v>19.333584999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.258000</v>
+        <v>-124.258</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>69611.516965</v>
+        <v>69611.516965000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.336532</v>
+        <v>19.336531999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.440000</v>
+        <v>1040.44</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.672000</v>
+        <v>-195.672</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>69622.593624</v>
+        <v>69622.593624000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.339609</v>
+        <v>19.339608999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1107.910000</v>
+        <v>1107.9100000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.785000</v>
+        <v>-310.78500000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>69632.828570</v>
+        <v>69632.828569999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.342452</v>
+        <v>19.342452000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.532000</v>
+        <v>-490.53199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>69643.507668</v>
+        <v>69643.507668000006</v>
       </c>
       <c r="BT23" s="1">
         <v>19.345419</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.480000</v>
+        <v>1339.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.222000</v>
+        <v>-686.22199999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>69654.361389</v>
+        <v>69654.361388999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.348434</v>
+        <v>19.348434000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.690000</v>
+        <v>1474.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-894.166000</v>
+        <v>-894.16600000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>69667.330284</v>
+        <v>69667.330283999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.352036</v>
+        <v>19.352035999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.550000</v>
+        <v>1826.55</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.760000</v>
+        <v>-1385.76</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>69495.844958</v>
+        <v>69495.844958000001</v>
       </c>
       <c r="B24" s="1">
-        <v>19.304401</v>
+        <v>19.304400999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>900.620000</v>
+        <v>900.62</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.147000</v>
+        <v>-194.14699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>69506.240144</v>
+        <v>69506.240143999996</v>
       </c>
       <c r="G24" s="1">
-        <v>19.307289</v>
+        <v>19.307289000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>917.677000</v>
+        <v>917.67700000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.721000</v>
+        <v>-164.721</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>69516.714132</v>
+        <v>69516.714131999994</v>
       </c>
       <c r="L24" s="1">
         <v>19.310198</v>
       </c>
       <c r="M24" s="1">
-        <v>940.697000</v>
+        <v>940.697</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.123000</v>
+        <v>-118.123</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>69527.262548</v>
+        <v>69527.262547999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.313128</v>
+        <v>19.313127999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.788000</v>
+        <v>947.78800000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.626000</v>
+        <v>-102.626</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>69537.720696</v>
+        <v>69537.720696000004</v>
       </c>
       <c r="V24" s="1">
-        <v>19.316034</v>
+        <v>19.316033999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>954.618000</v>
+        <v>954.61800000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.147400</v>
+        <v>-88.147400000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>69548.582815</v>
+        <v>69548.582815000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.319051</v>
+        <v>19.319051000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.254000</v>
+        <v>962.25400000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.034300</v>
+        <v>-77.034300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>69559.038250</v>
+        <v>69559.038249999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.321955</v>
+        <v>19.321954999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.342000</v>
+        <v>967.34199999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.005100</v>
+        <v>-75.005099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>69569.607996</v>
+        <v>69569.607996000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.324891</v>
+        <v>19.324891000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.786000</v>
+        <v>974.78599999999994</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.700100</v>
+        <v>-79.700100000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>69580.221887</v>
+        <v>69580.221887000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.327839</v>
+        <v>19.327839000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.035000</v>
+        <v>983.03499999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.162600</v>
+        <v>-91.162599999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>69591.055504</v>
+        <v>69591.055504000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.330849</v>
+        <v>19.330849000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.014000</v>
+        <v>993.01400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.739000</v>
+        <v>-108.739</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>69601.267139</v>
+        <v>69601.267139000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.333685</v>
+        <v>19.333684999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.244000</v>
+        <v>-124.244</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>69611.880572</v>
+        <v>69611.880571999995</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.336633</v>
+        <v>19.336632999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.667000</v>
+        <v>-195.667</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>69623.039032</v>
+        <v>69623.039032000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.339733</v>
+        <v>19.339732999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1107.890000</v>
+        <v>1107.8900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.777000</v>
+        <v>-310.77699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>69633.249705</v>
+        <v>69633.249704999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.342569</v>
+        <v>19.342569000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.535000</v>
+        <v>-490.53500000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>69643.937467</v>
+        <v>69643.937466999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.345538</v>
+        <v>19.345538000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.390000</v>
+        <v>1339.39</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.175000</v>
+        <v>-686.17499999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>69654.781996</v>
+        <v>69654.781996000005</v>
       </c>
       <c r="BY24" s="1">
         <v>19.348551</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.590000</v>
+        <v>1474.59</v>
       </c>
       <c r="CA24" s="1">
-        <v>-894.137000</v>
+        <v>-894.13699999999994</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>69667.836699</v>
+        <v>69667.836699000007</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.352177</v>
+        <v>19.352177000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.540000</v>
+        <v>1826.54</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1384.540000</v>
+        <v>-1384.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>69496.190701</v>
       </c>
       <c r="B25" s="1">
-        <v>19.304497</v>
+        <v>19.304497000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>900.781000</v>
+        <v>900.78099999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.138000</v>
+        <v>-194.13800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>69506.586499</v>
+        <v>69506.586498999997</v>
       </c>
       <c r="G25" s="1">
         <v>19.307385</v>
       </c>
       <c r="H25" s="1">
-        <v>917.940000</v>
+        <v>917.94</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.732000</v>
+        <v>-164.732</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>69517.060866</v>
@@ -6422,420 +6838,420 @@
         <v>19.310295</v>
       </c>
       <c r="M25" s="1">
-        <v>940.742000</v>
+        <v>940.74199999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.079000</v>
+        <v>-118.07899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>69527.610769</v>
+        <v>69527.610769000006</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.313225</v>
+        <v>19.313224999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>947.769000</v>
+        <v>947.76900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.610000</v>
+        <v>-102.61</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>69538.368470</v>
+        <v>69538.368470000001</v>
       </c>
       <c r="V25" s="1">
-        <v>19.316213</v>
+        <v>19.316213000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>954.612000</v>
+        <v>954.61199999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.164200</v>
+        <v>-88.164199999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>69548.960041</v>
+        <v>69548.960040999998</v>
       </c>
       <c r="AA25" s="1">
         <v>19.319156</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.304000</v>
+        <v>962.30399999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.129800</v>
+        <v>-77.129800000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>69559.415212</v>
+        <v>69559.415212000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.322060</v>
+        <v>19.32206</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.197000</v>
+        <v>967.197</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.126400</v>
+        <v>-75.126400000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>69569.956188</v>
+        <v>69569.956187999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.324988</v>
+        <v>19.324988000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.796000</v>
+        <v>974.79600000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.687500</v>
+        <v>-79.6875</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>69580.603311</v>
+        <v>69580.603310999999</v>
       </c>
       <c r="AP25" s="1">
         <v>19.327945</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.039000</v>
+        <v>983.03899999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.161400</v>
+        <v>-91.1614</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>69591.423039</v>
+        <v>69591.423039000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.330951</v>
+        <v>19.330950999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.025000</v>
+        <v>993.02499999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.737000</v>
+        <v>-108.73699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>69601.689730</v>
+        <v>69601.689729999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>19.333803</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.268000</v>
+        <v>-124.268</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>69612.302628</v>
+        <v>69612.302628000005</v>
       </c>
       <c r="BE25" s="1">
         <v>19.336751</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.430000</v>
+        <v>1040.43</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.686000</v>
+        <v>-195.68600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>69623.342584</v>
+        <v>69623.342583999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>19.339817</v>
       </c>
       <c r="BK25" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.782000</v>
+        <v>-310.78199999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>69633.648952</v>
+        <v>69633.648952000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.342680</v>
+        <v>19.342680000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.548000</v>
+        <v>-490.548</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>69644.347694</v>
+        <v>69644.347693999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.345652</v>
+        <v>19.345652000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.310000</v>
+        <v>1339.31</v>
       </c>
       <c r="BV25" s="1">
-        <v>-686.092000</v>
+        <v>-686.09199999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>69655.200125</v>
+        <v>69655.200125000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.348667</v>
+        <v>19.348666999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.550000</v>
+        <v>1474.55</v>
       </c>
       <c r="CA25" s="1">
-        <v>-894.034000</v>
+        <v>-894.03399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>69668.365930</v>
+        <v>69668.36593</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.352324</v>
+        <v>19.352323999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.340000</v>
+        <v>1825.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1385.610000</v>
+        <v>-1385.61</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>69496.535389</v>
+        <v>69496.535388999997</v>
       </c>
       <c r="B26" s="1">
-        <v>19.304593</v>
+        <v>19.304593000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>900.606000</v>
+        <v>900.60599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.057000</v>
+        <v>-194.05699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>69506.936993</v>
+        <v>69506.936992999996</v>
       </c>
       <c r="G26" s="1">
         <v>19.307482</v>
       </c>
       <c r="H26" s="1">
-        <v>918.132000</v>
+        <v>918.13199999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.355000</v>
+        <v>-164.35499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>69517.726002</v>
+        <v>69517.726001999996</v>
       </c>
       <c r="L26" s="1">
-        <v>19.310479</v>
+        <v>19.310479000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.752000</v>
+        <v>940.75199999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.071000</v>
+        <v>-118.071</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>69528.267939</v>
+        <v>69528.267938999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.313408</v>
+        <v>19.313407999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>947.775000</v>
+        <v>947.77499999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.451000</v>
+        <v>-102.45099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>69538.750401</v>
+        <v>69538.750400999998</v>
       </c>
       <c r="V26" s="1">
-        <v>19.316320</v>
+        <v>19.316320000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>954.558000</v>
+        <v>954.55799999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.175600</v>
+        <v>-88.175600000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>69549.309752</v>
+        <v>69549.309752000001</v>
       </c>
       <c r="AA26" s="1">
         <v>19.319253</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.265000</v>
+        <v>962.26499999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.068900</v>
+        <v>-77.068899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>69559.755507</v>
+        <v>69559.755506999994</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.322154</v>
+        <v>19.322154000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.324000</v>
+        <v>967.32399999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.992200</v>
+        <v>-74.992199999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>69570.306364</v>
+        <v>69570.306364000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.325085</v>
+        <v>19.325085000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.774000</v>
+        <v>974.774</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.663500</v>
+        <v>-79.663499999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>69580.966382</v>
+        <v>69580.966381999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.328046</v>
+        <v>19.328046000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.028000</v>
+        <v>983.02800000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.185400</v>
+        <v>-91.185400000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>69591.842655</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.331067</v>
+        <v>19.331067000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.991000</v>
+        <v>992.99099999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>69601.986338</v>
+        <v>69601.986338000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.333885</v>
+        <v>19.333884999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.288000</v>
+        <v>-124.288</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>69612.600227</v>
+        <v>69612.600227000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.336833</v>
+        <v>19.336832999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.420000</v>
+        <v>1040.42</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.685000</v>
+        <v>-195.685</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>69623.741365</v>
+        <v>69623.741364999994</v>
       </c>
       <c r="BJ26" s="1">
         <v>19.339928</v>
       </c>
       <c r="BK26" s="1">
-        <v>1107.900000</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.782000</v>
+        <v>-310.78199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>69634.067079</v>
@@ -6844,60 +7260,61 @@
         <v>19.342796</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.150000</v>
+        <v>1217.1500000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.545000</v>
+        <v>-490.54500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>69644.780205</v>
+        <v>69644.780205000003</v>
       </c>
       <c r="BT26" s="1">
         <v>19.345772</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.240000</v>
+        <v>1339.24</v>
       </c>
       <c r="BV26" s="1">
-        <v>-686.080000</v>
+        <v>-686.08</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>69655.657436</v>
+        <v>69655.657435999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.348794</v>
+        <v>19.348794000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.630000</v>
+        <v>1474.63</v>
       </c>
       <c r="CA26" s="1">
-        <v>-894.115000</v>
+        <v>-894.11500000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>69668.907094</v>
+        <v>69668.907093999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.352474</v>
+        <v>19.352474000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.820000</v>
+        <v>1826.82</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1384.640000</v>
+        <v>-1384.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>